--- a/Examples/Amphibole/Amphibole_Liquids.xlsx
+++ b/Examples/Amphibole/Amphibole_Liquids.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://oregonstateuniversity-my.sharepoint.com/personal/wieserp_oregonstate_edu/Documents/Postdoc/PyMME/MyBarometers/Thermobar_outer/Examples/Amphibole/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\penny\OneDrive - Oregon State University\Postdoc\PyMME\MyBarometers\Thermobar_outer\Examples\Amphibole\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7402E262-05A7-4A91-BDBD-1894B7FE8610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B60C74B-D60F-49A1-80B3-5A8E650C0DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{5C7BD346-92C0-4F53-93F6-E0A947C2FF67}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{5C7BD346-92C0-4F53-93F6-E0A947C2FF67}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>Sample_ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>SiO2_Liq</t>
   </si>
@@ -103,16 +100,160 @@
   </si>
   <si>
     <t>Cr2O3_Amp</t>
+  </si>
+  <si>
+    <t>Sample_ID_Amp</t>
+  </si>
+  <si>
+    <t>probe1</t>
+  </si>
+  <si>
+    <t>probe2</t>
+  </si>
+  <si>
+    <t>probe4</t>
+  </si>
+  <si>
+    <t>probe7</t>
+  </si>
+  <si>
+    <t>probe3</t>
+  </si>
+  <si>
+    <t>probe6</t>
+  </si>
+  <si>
+    <t>probe8</t>
+  </si>
+  <si>
+    <t>probe5</t>
+  </si>
+  <si>
+    <t>probe9</t>
+  </si>
+  <si>
+    <t>probe10</t>
+  </si>
+  <si>
+    <t>probe11</t>
+  </si>
+  <si>
+    <t>probe12</t>
+  </si>
+  <si>
+    <t>probe13</t>
+  </si>
+  <si>
+    <t>probe14</t>
+  </si>
+  <si>
+    <t>probe15</t>
+  </si>
+  <si>
+    <t>probe16</t>
+  </si>
+  <si>
+    <t>probe17</t>
+  </si>
+  <si>
+    <t>probe18</t>
+  </si>
+  <si>
+    <t>probe19</t>
+  </si>
+  <si>
+    <t>probe20</t>
+  </si>
+  <si>
+    <t>probe21</t>
+  </si>
+  <si>
+    <t>probe22</t>
+  </si>
+  <si>
+    <t>Sample_ID_Liq</t>
+  </si>
+  <si>
+    <t>probe_s2_1</t>
+  </si>
+  <si>
+    <t>probe_s2_2</t>
+  </si>
+  <si>
+    <t>probe_s2_3</t>
+  </si>
+  <si>
+    <t>probe_s2_4</t>
+  </si>
+  <si>
+    <t>probe_s2_5</t>
+  </si>
+  <si>
+    <t>probe_s2_6</t>
+  </si>
+  <si>
+    <t>probe_s2_7</t>
+  </si>
+  <si>
+    <t>probe_s2_8</t>
+  </si>
+  <si>
+    <t>probe_s2_9</t>
+  </si>
+  <si>
+    <t>probe_s2_10</t>
+  </si>
+  <si>
+    <t>probe_s2_11</t>
+  </si>
+  <si>
+    <t>probe_s2_12</t>
+  </si>
+  <si>
+    <t>probe_s2_13</t>
+  </si>
+  <si>
+    <t>probe_s2_14</t>
+  </si>
+  <si>
+    <t>probe_s2_15</t>
+  </si>
+  <si>
+    <t>probe_s2_16</t>
+  </si>
+  <si>
+    <t>probe_s2_17</t>
+  </si>
+  <si>
+    <t>probe_s2_18</t>
+  </si>
+  <si>
+    <t>probe_s2_19</t>
+  </si>
+  <si>
+    <t>probe_s2_20</t>
+  </si>
+  <si>
+    <t>probe_s2_21</t>
+  </si>
+  <si>
+    <t>probe_s2_22</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -454,88 +595,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{278EB92D-3FDB-4831-875A-65F9C6302834}">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:X23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.88671875" customWidth="1"/>
+    <col min="14" max="14" width="16.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>46</v>
       </c>
       <c r="B2">
         <v>62.317402705027561</v>
@@ -573,40 +721,43 @@
       <c r="M2">
         <v>5</v>
       </c>
-      <c r="N2">
+      <c r="N2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2">
         <v>40.57</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>2.4500000000000002</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>12.82</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>13.11</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>0.26</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>13.02</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>11.63</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>0.92</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>47</v>
       </c>
       <c r="B3">
         <v>63.410655085328358</v>
@@ -644,40 +795,43 @@
       <c r="M3">
         <v>5</v>
       </c>
-      <c r="N3">
+      <c r="N3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3">
         <v>39.450000000000003</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>1.88</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>10.8</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>11.85</v>
       </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
       <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
         <v>11.32</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>10.94</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>2.04</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>0.75</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>48</v>
       </c>
       <c r="B4">
         <v>64.978351092853472</v>
@@ -715,40 +869,43 @@
       <c r="M4">
         <v>5</v>
       </c>
-      <c r="N4">
+      <c r="N4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4">
         <v>42.88</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>3.46</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>14.28</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>15.99</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>0.54</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>14.25</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>12.12</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>2.4300000000000002</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>1.18</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3</v>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>49</v>
       </c>
       <c r="B5">
         <v>60.953715432689123</v>
@@ -786,40 +943,43 @@
       <c r="M5">
         <v>5</v>
       </c>
-      <c r="N5">
+      <c r="N5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5">
         <v>42.2</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>2.75</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>11.1</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>13.1</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>0.39</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>13.55</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>11.07</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>2.27</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>0.95</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>50</v>
       </c>
       <c r="B6">
         <v>60.188393597676495</v>
@@ -857,40 +1017,43 @@
       <c r="M6">
         <v>5</v>
       </c>
-      <c r="N6">
+      <c r="N6" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6">
         <v>40.369999999999997</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>2.2799999999999998</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>10.06</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>11.76</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>0.19</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>12.41</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>10.4</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>2.09</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>0.82</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>51</v>
       </c>
       <c r="B7">
         <v>63.785726270105506</v>
@@ -928,40 +1091,43 @@
       <c r="M7">
         <v>5</v>
       </c>
-      <c r="N7">
+      <c r="N7" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7">
         <v>43.4</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>3.39</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>12.15</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>15.28</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>0.67</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>14.38</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>11.55</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>2.48</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>1.1399999999999999</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>0.22</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>6</v>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>52</v>
       </c>
       <c r="B8">
         <v>62.291211138415719</v>
@@ -999,40 +1165,43 @@
       <c r="M8">
         <v>5</v>
       </c>
-      <c r="N8">
+      <c r="N8" t="s">
+        <v>26</v>
+      </c>
+      <c r="O8">
         <v>42.27</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>2.7</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>11.33</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>13.3</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>0.4</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>13.22</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>11.05</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>2.2799999999999998</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>0.99</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>7</v>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>53</v>
       </c>
       <c r="B9">
         <v>62.103648287651396</v>
@@ -1070,40 +1239,43 @@
       <c r="M9">
         <v>5</v>
       </c>
-      <c r="N9">
+      <c r="N9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9">
         <v>41.2</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>2.02</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>10.91</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>12.02</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>0.22</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>12.02</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>10.58</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>2.15</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>0.77</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>8</v>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>54</v>
       </c>
       <c r="B10">
         <v>63.621997293382826</v>
@@ -1141,40 +1313,43 @@
       <c r="M10">
         <v>5</v>
       </c>
-      <c r="N10">
+      <c r="N10" t="s">
+        <v>31</v>
+      </c>
+      <c r="O10">
         <v>43.33</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>3.28</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>12.27</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>14.63</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>0.62</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>13.86</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>11.53</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>2.46</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>1.17</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>9</v>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>55</v>
       </c>
       <c r="B11">
         <v>59.534467185403116</v>
@@ -1212,40 +1387,43 @@
       <c r="M11">
         <v>5</v>
       </c>
-      <c r="N11">
+      <c r="N11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O11">
         <v>39.65</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>2.02</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>14.58</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>12.26</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>0.13</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>13.09</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>11.96</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>2.13</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>1.1599999999999999</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>0.01</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>10</v>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>56</v>
       </c>
       <c r="B12">
         <v>59.437464719417001</v>
@@ -1283,40 +1461,43 @@
       <c r="M12">
         <v>5</v>
       </c>
-      <c r="N12">
+      <c r="N12" t="s">
+        <v>33</v>
+      </c>
+      <c r="O12">
         <v>39.07</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>1.81</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>14.36</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>11.72</v>
       </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
       <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
         <v>12.54</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>11.66</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>1.98</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>1.05</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>11</v>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>57</v>
       </c>
       <c r="B13">
         <v>61.007837109978681</v>
@@ -1354,40 +1535,43 @@
       <c r="M13">
         <v>5</v>
       </c>
-      <c r="N13">
+      <c r="N13" t="s">
+        <v>34</v>
+      </c>
+      <c r="O13">
         <v>40.1</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>2.12</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>14.87</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>13.1</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>0.26</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>13.53</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>12.3</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>2.33</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>1.29</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>0.03</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>12</v>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>58</v>
       </c>
       <c r="B14">
         <v>62.317402705027561</v>
@@ -1425,40 +1609,43 @@
       <c r="M14">
         <v>2</v>
       </c>
-      <c r="N14">
+      <c r="N14" t="s">
+        <v>35</v>
+      </c>
+      <c r="O14">
         <v>40.57</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>2.4500000000000002</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>12.82</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>13.11</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>0.26</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>13.02</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>11.63</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>2.2000000000000002</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>0.92</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>13</v>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>59</v>
       </c>
       <c r="B15">
         <v>63.410655085328358</v>
@@ -1496,40 +1683,43 @@
       <c r="M15">
         <v>2</v>
       </c>
-      <c r="N15">
+      <c r="N15" t="s">
+        <v>36</v>
+      </c>
+      <c r="O15">
         <v>39.450000000000003</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>1.88</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>10.8</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>11.85</v>
       </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
       <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
         <v>11.32</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>10.94</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>2.04</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>0.75</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>14</v>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>60</v>
       </c>
       <c r="B16">
         <v>64.978351092853472</v>
@@ -1567,40 +1757,43 @@
       <c r="M16">
         <v>2</v>
       </c>
-      <c r="N16">
+      <c r="N16" t="s">
+        <v>37</v>
+      </c>
+      <c r="O16">
         <v>42.88</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>3.46</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>14.28</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>15.99</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>0.54</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>14.25</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>12.12</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>2.4300000000000002</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>1.18</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>0.03</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>15</v>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>61</v>
       </c>
       <c r="B17">
         <v>71.375368281323389</v>
@@ -1638,37 +1831,40 @@
       <c r="M17">
         <v>5</v>
       </c>
-      <c r="N17">
+      <c r="N17" t="s">
+        <v>38</v>
+      </c>
+      <c r="O17">
         <v>46.78</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>1.23</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>7.74</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>13.091000000000001</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>0.24</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>14.53</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>11.09</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>1.46</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>0.17</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>16</v>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>62</v>
       </c>
       <c r="B18">
         <v>70.993363882701473</v>
@@ -1706,37 +1902,40 @@
       <c r="M18">
         <v>5</v>
       </c>
-      <c r="N18">
+      <c r="N18" t="s">
+        <v>39</v>
+      </c>
+      <c r="O18">
         <v>48.05</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>1.3</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>6.71</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>12.251000000000001</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>0.28999999999999998</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>15.13</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>11.16</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>1.33</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>0.15</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>17</v>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>63</v>
       </c>
       <c r="B19">
         <v>70.993363882701473</v>
@@ -1774,37 +1973,40 @@
       <c r="M19">
         <v>5</v>
       </c>
-      <c r="N19">
+      <c r="N19" t="s">
+        <v>40</v>
+      </c>
+      <c r="O19">
         <v>48.05</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>1.3</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>6.71</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>12.251000000000001</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>0.28999999999999998</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>15.13</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>11.16</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>1.33</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>0.15</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>18</v>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>64</v>
       </c>
       <c r="B20">
         <v>71.29535056657663</v>
@@ -1842,40 +2044,43 @@
       <c r="M20">
         <v>5</v>
       </c>
-      <c r="N20">
+      <c r="N20" t="s">
+        <v>41</v>
+      </c>
+      <c r="O20">
         <v>50.04</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>0.67</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>4.3099999999999996</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>17.48</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>0.44</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>12.68</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>11.06</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>0.92</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>0.39</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>19</v>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>65</v>
       </c>
       <c r="B21">
         <v>71.362822784228072</v>
@@ -1913,40 +2118,43 @@
       <c r="M21">
         <v>5</v>
       </c>
-      <c r="N21">
+      <c r="N21" t="s">
+        <v>42</v>
+      </c>
+      <c r="O21">
         <v>48.42</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>0.91</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>4.71</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>18.309999999999999</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>0.37</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>11.41</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>10.88</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>1.02</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>0.46</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>0.01</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>20</v>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>66</v>
       </c>
       <c r="B22">
         <v>55.080794381375242</v>
@@ -1984,40 +2192,43 @@
       <c r="M22">
         <v>5</v>
       </c>
-      <c r="N22">
+      <c r="N22" t="s">
+        <v>43</v>
+      </c>
+      <c r="O22">
         <v>44.14</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>1.41</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>9.6</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>19.18</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>0.35</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>10.039999999999999</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>10.42</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>1.57</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>1.02</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>21</v>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>67</v>
       </c>
       <c r="B23">
         <v>67.547133992151373</v>
@@ -2055,38 +2266,42 @@
       <c r="M23">
         <v>5</v>
       </c>
-      <c r="N23">
+      <c r="N23" t="s">
+        <v>44</v>
+      </c>
+      <c r="O23">
         <v>43.22</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>1.22</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>13.13</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>18.93</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>0.31</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>7.74</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>10.3</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>1.53</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>0.89</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Examples/Amphibole/Amphibole_Liquids.xlsx
+++ b/Examples/Amphibole/Amphibole_Liquids.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\penny\OneDrive - Oregon State University\Postdoc\PyMME\MyBarometers\Thermobar_outer\Examples\Amphibole\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B60C74B-D60F-49A1-80B3-5A8E650C0DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669BEEE2-9FE4-46B7-BF36-82F7E0C46D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{5C7BD346-92C0-4F53-93F6-E0A947C2FF67}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{5C7BD346-92C0-4F53-93F6-E0A947C2FF67}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -598,7 +598,7 @@
   <dimension ref="A1:X23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
